--- a/Documents/4CHIF_JUST_Stundenprotokoll.xlsx
+++ b/Documents/4CHIF_JUST_Stundenprotokoll.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janfi\Desktop\4CHIF\JUST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janfi\Desktop\4CHIF\just\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E554B6C-0AD8-4B9B-99AA-51F3C3559E5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4F1228-7CF5-4F11-92FE-EA7687084158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{636FC6D6-FC23-4AAD-901B-119DCAB366AD}"/>
+    <workbookView xWindow="225" yWindow="0" windowWidth="29040" windowHeight="15750" xr2:uid="{636FC6D6-FC23-4AAD-901B-119DCAB366AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>JUST Stundenprotokoll</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>Datenbank aufsetzen</t>
+  </si>
+  <si>
+    <t>UML erstellen</t>
+  </si>
+  <si>
+    <t>Kontengiert</t>
   </si>
 </sst>
 </file>
@@ -116,7 +122,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -124,21 +130,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -176,9 +192,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{010176F1-46AE-4A22-8D27-19DE7D49CEE8}" name="Tabelle1" displayName="Tabelle1" ref="A3:G12" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A3:G12" xr:uid="{4BDD021A-449D-4BE3-AF1C-5C25F0AD5EBD}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{010176F1-46AE-4A22-8D27-19DE7D49CEE8}" name="Tabelle1" displayName="Tabelle1" ref="A3:H12" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A3:H12" xr:uid="{4BDD021A-449D-4BE3-AF1C-5C25F0AD5EBD}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{AFD822F5-5228-4A79-9F5A-F8AB165E14FA}" name="Aufgabe"/>
     <tableColumn id="2" xr3:uid="{D620AC1F-D39B-4E9F-95EE-9A3EBC32A155}" name="Fischlmayr Jan"/>
     <tableColumn id="3" xr3:uid="{BDF29C8F-164C-4F91-93DD-12871D12B87C}" name="Kowatschek Samuel"/>
@@ -186,6 +202,7 @@
     <tableColumn id="5" xr3:uid="{3CFF185C-39AC-4572-B6B9-861B7E7BF89F}" name="Haider Bastian"/>
     <tableColumn id="6" xr3:uid="{AB4452DF-FC57-4C66-95E3-52A3268E9AC5}" name="Lehner Fabio"/>
     <tableColumn id="7" xr3:uid="{B4EB3E30-8787-41C6-A478-34405C4A3B9B}" name="Summe"/>
+    <tableColumn id="8" xr3:uid="{34093207-0A85-4C5F-9345-CEBF6E3FDEFF}" name="Kontengiert"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -491,7 +508,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,14 +522,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -522,13 +539,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -558,6 +575,9 @@
       <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -570,8 +590,11 @@
         <v>4</v>
       </c>
       <c r="G4">
-        <f>SUM(B4:F4)</f>
+        <f t="shared" ref="G4:G11" si="0">SUM(B4:F4)</f>
         <v>9</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -582,8 +605,11 @@
         <v>8</v>
       </c>
       <c r="G5">
-        <f>SUM(B5:F5)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -606,8 +632,11 @@
         <v>5</v>
       </c>
       <c r="G6">
-        <f>SUM(B6:F6)</f>
+        <f t="shared" si="0"/>
         <v>45</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -621,8 +650,11 @@
         <v>8</v>
       </c>
       <c r="G7">
-        <f>SUM(B7:F7)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -633,8 +665,11 @@
         <v>20</v>
       </c>
       <c r="G8">
-        <f>SUM(B8:F8)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
+      </c>
+      <c r="H8">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -642,7 +677,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -651,8 +686,11 @@
         <v>5</v>
       </c>
       <c r="G9">
-        <f>SUM(B9:F9)</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -662,34 +700,66 @@
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
-        <f>SUM(B4:B10)</f>
-        <v>35</v>
-      </c>
-      <c r="C12">
-        <f>SUM(C4:C10)</f>
+      <c r="B12" s="5">
+        <f t="shared" ref="B12:H12" si="1">SUM(B4:B11)</f>
+        <v>40</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="D12">
-        <f>SUM(D4:D10)</f>
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <f>SUM(E4:E10)</f>
-        <v>10</v>
-      </c>
-      <c r="F12">
-        <f>SUM(F4:F10)</f>
-        <v>13</v>
-      </c>
-      <c r="G12">
-        <f>SUM(G4:G10)</f>
-        <v>103</v>
+      <c r="D12" s="5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="1"/>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/4CHIF_JUST_Stundenprotokoll.xlsx
+++ b/Documents/4CHIF_JUST_Stundenprotokoll.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janfi\Desktop\4CHIF\just\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4F1228-7CF5-4F11-92FE-EA7687084158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B14888-C2F9-4648-B30E-B4C54B78FD76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="0" windowWidth="29040" windowHeight="15750" xr2:uid="{636FC6D6-FC23-4AAD-901B-119DCAB366AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{636FC6D6-FC23-4AAD-901B-119DCAB366AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,70 +33,119 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>JUST Stundenprotokoll</t>
-  </si>
-  <si>
-    <t>Fischlmayr Jan</t>
-  </si>
-  <si>
-    <t>Kowatschek Samuel</t>
-  </si>
-  <si>
-    <t>Haider Bastian</t>
-  </si>
-  <si>
-    <t>Huemer Patrick</t>
-  </si>
-  <si>
-    <t>Lehner Fabio</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
   <si>
     <t>Aufgabe</t>
   </si>
   <si>
-    <t>Stunden pro Teammitglied</t>
-  </si>
-  <si>
     <t>Projektantrag erstellen</t>
   </si>
   <si>
-    <t>Projektstrukturplan erstellen</t>
-  </si>
-  <si>
     <t>Pflichtenheft erstellen</t>
   </si>
   <si>
-    <t>Logo designen</t>
-  </si>
-  <si>
-    <t>Websitelayout designen</t>
-  </si>
-  <si>
     <t>Gesamt:</t>
   </si>
   <si>
-    <t>Datenbankmodell erstellen</t>
-  </si>
-  <si>
-    <t>Summe</t>
-  </si>
-  <si>
-    <t>Datenbank aufsetzen</t>
-  </si>
-  <si>
-    <t>UML erstellen</t>
-  </si>
-  <si>
-    <t>Kontengiert</t>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Mitglied</t>
+  </si>
+  <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
+    <t>Stunden</t>
+  </si>
+  <si>
+    <t>Von</t>
+  </si>
+  <si>
+    <t>Bis</t>
+  </si>
+  <si>
+    <t>Jan Fischlmayr</t>
+  </si>
+  <si>
+    <t>Pflichtenheft</t>
+  </si>
+  <si>
+    <t>UML einfügen und Anforderungen überarbeiten</t>
+  </si>
+  <si>
+    <t>Projektstrukturplan</t>
+  </si>
+  <si>
+    <t>PSP erstellen</t>
+  </si>
+  <si>
+    <t>PSP überarbeiten</t>
+  </si>
+  <si>
+    <t>Projektantrag</t>
+  </si>
+  <si>
+    <t>Projektantrag finalisieren</t>
+  </si>
+  <si>
+    <t>Gesamtstunden</t>
+  </si>
+  <si>
+    <t>Projektantrag überarbeiten</t>
+  </si>
+  <si>
+    <t>Samuel Kowatschek</t>
+  </si>
+  <si>
+    <t>Patrick Huemer</t>
+  </si>
+  <si>
+    <t>Pflichtenheft neuerstellen</t>
+  </si>
+  <si>
+    <t>Pflichtenheft erweitern</t>
+  </si>
+  <si>
+    <t>PSP finalisieren</t>
+  </si>
+  <si>
+    <t>Datenbankmodel</t>
+  </si>
+  <si>
+    <t>Relations finden und Tabellen erweitern</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,15 +192,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -159,7 +224,59 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -177,6 +294,42 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="hh:mm;@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -192,17 +345,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{010176F1-46AE-4A22-8D27-19DE7D49CEE8}" name="Tabelle1" displayName="Tabelle1" ref="A3:H12" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A3:H12" xr:uid="{4BDD021A-449D-4BE3-AF1C-5C25F0AD5EBD}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{AFD822F5-5228-4A79-9F5A-F8AB165E14FA}" name="Aufgabe"/>
-    <tableColumn id="2" xr3:uid="{D620AC1F-D39B-4E9F-95EE-9A3EBC32A155}" name="Fischlmayr Jan"/>
-    <tableColumn id="3" xr3:uid="{BDF29C8F-164C-4F91-93DD-12871D12B87C}" name="Kowatschek Samuel"/>
-    <tableColumn id="4" xr3:uid="{09FAAAE9-C1FB-4F8C-BBA0-6577B342338F}" name="Huemer Patrick"/>
-    <tableColumn id="5" xr3:uid="{3CFF185C-39AC-4572-B6B9-861B7E7BF89F}" name="Haider Bastian"/>
-    <tableColumn id="6" xr3:uid="{AB4452DF-FC57-4C66-95E3-52A3268E9AC5}" name="Lehner Fabio"/>
-    <tableColumn id="7" xr3:uid="{B4EB3E30-8787-41C6-A478-34405C4A3B9B}" name="Summe"/>
-    <tableColumn id="8" xr3:uid="{34093207-0A85-4C5F-9345-CEBF6E3FDEFF}" name="Kontengiert"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F961C72F-986B-45C7-9EE6-C71F656E8A9B}" name="Tabelle4" displayName="Tabelle4" ref="I1:J6" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="I1:J6" xr:uid="{E1EBE3F0-6EB7-4788-A215-5855DF9F6C31}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{FAA754C0-FC83-48C5-8498-E31AEE3BB9FB}" name="Aufgabe"/>
+    <tableColumn id="2" xr3:uid="{A113263D-9900-48A8-B384-8820245D7A1C}" name="Gesamtstunden" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6F38B388-F2B0-46E9-BD16-2BD59AD58B7E}" name="Tabelle5" displayName="Tabelle5" ref="A1:G16" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:G16" xr:uid="{A80558E1-FB5E-4A8B-B87E-A7A6FB67DBB2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G16">
+    <sortCondition ref="A1:A16"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{956A7422-8F9B-4782-B2E6-7C1532FD1FA3}" name="Datum" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{5BD89589-6D02-46FA-A4D7-9221BA99DD0C}" name="Von" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{6A2BF42C-F7BE-412C-BB1D-5729A964329A}" name="Bis" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{F51986EA-AB4B-4451-8366-290C8E3BD8F7}" name="Mitglied" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{CC402661-2DA3-4E10-97AD-F9E1619AA021}" name="Aufgabe" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{52E2CE1F-290D-4451-8AD6-B7BF4B6EE8B2}" name="Beschreibung"/>
+    <tableColumn id="7" xr3:uid="{6ECF7CF3-3E16-4880-B4CD-D3E9BC424418}" name="Stunden" dataDxfId="0">
+      <calculatedColumnFormula>C2-B2</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -505,271 +673,484 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F74C66E-C3BC-44EA-A360-2C6C929F1751}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10" style="8" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="6" t="s">
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="I1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>44124</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
+        <f>C2-B2</f>
+        <v>6.5972222222222099E-2</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="12" cm="1">
+        <f t="array" ref="J2">SUM(IF(E:E="Projektantrag",G:G,))</f>
+        <v>0.38541666666666674</v>
+      </c>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="L2" s="3"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>44125</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7">
+        <f>C3-B3</f>
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="12" cm="1">
+        <f t="array" ref="J3">SUM(IF(E:E="Projektstrukturplan",G:G,))</f>
+        <v>0.22569444444444436</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>44128</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7">
+        <f>C4-B4</f>
+        <v>4.8611111111111049E-2</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="12" cm="1">
+        <f t="array" ref="J4">SUM(IF(E:E="Pflichtenheft",G:G,))</f>
+        <v>0.20486111111111105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>44131</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7">
+        <f>C5-B5</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="12" cm="1">
+        <f t="array" ref="J5">SUM(IF(E:E="Datenbankmodel",G:G,))</f>
+        <v>7.9861111111111049E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>44131</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7">
+        <f>C6-B6</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="15">
+        <f>SUM(J2:J5)</f>
+        <v>0.89583333333333326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>44131</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="7">
+        <f>C7-B7</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>44131</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="7">
+        <f>C8-B8</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>44132</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="7">
+        <f>C9-B9</f>
+        <v>0.11805555555555558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>44132</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="7">
+        <f>C10-B10</f>
+        <v>0.11805555555555558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>44134</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G11" si="0">SUM(B4:F4)</f>
-        <v>9</v>
-      </c>
-      <c r="H4">
+      <c r="G11" s="7">
+        <f>C11-B11</f>
+        <v>5.9027777777777901E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>44138</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H5">
+      <c r="E12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="7">
+        <f>C12-B12</f>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>44145</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="7">
+        <f>C13-B13</f>
+        <v>1.736111111111116E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>44145</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>20</v>
-      </c>
-      <c r="C6">
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="7">
+        <f>C14-B14</f>
+        <v>3.819444444444442E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>44156</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="H6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="E15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7">
+        <f>C15-B15</f>
+        <v>7.9861111111111049E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>44158</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>8</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="F16" t="s">
         <v>12</v>
       </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="H9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="5">
-        <f t="shared" ref="B12:H12" si="1">SUM(B4:B11)</f>
-        <v>40</v>
-      </c>
-      <c r="C12" s="5">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="D12" s="5">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="G12" s="5">
-        <f t="shared" si="1"/>
-        <v>122</v>
-      </c>
-      <c r="H12" s="5">
-        <f t="shared" si="1"/>
-        <v>270</v>
+      <c r="G16" s="7">
+        <f>C16-B16</f>
+        <v>3.4722222222222099E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="M2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Documents/4CHIF_JUST_Stundenprotokoll.xlsx
+++ b/Documents/4CHIF_JUST_Stundenprotokoll.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janfi\Desktop\4CHIF\just\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\just\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B14888-C2F9-4648-B30E-B4C54B78FD76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D2313B-DE1F-441B-9323-07E966609E1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{636FC6D6-FC23-4AAD-901B-119DCAB366AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{636FC6D6-FC23-4AAD-901B-119DCAB366AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -56,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="45">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -133,10 +132,64 @@
     <t>PSP finalisieren</t>
   </si>
   <si>
-    <t>Datenbankmodel</t>
-  </si>
-  <si>
     <t>Relations finden und Tabellen erweitern</t>
+  </si>
+  <si>
+    <t>Websitedesign</t>
+  </si>
+  <si>
+    <t>Entwürfe erstellen</t>
+  </si>
+  <si>
+    <t>Bastian Haider</t>
+  </si>
+  <si>
+    <t>Fabio Lehner</t>
+  </si>
+  <si>
+    <t>Entities ausarbeiten</t>
+  </si>
+  <si>
+    <t>Datenbankmodell</t>
+  </si>
+  <si>
+    <t>UML</t>
+  </si>
+  <si>
+    <t>Aktivitätsdiagramm erstellen und ausarbeiten</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Logo erstellen</t>
+  </si>
+  <si>
+    <t>Logo fertiggestellt</t>
+  </si>
+  <si>
+    <t>Entities erstellen</t>
+  </si>
+  <si>
+    <t>Use Case Diagramm erstellen</t>
+  </si>
+  <si>
+    <t>Attribute und Schlüssel ausarbeiten</t>
+  </si>
+  <si>
+    <t>Use Case Diagramm ausarbeiten</t>
+  </si>
+  <si>
+    <t>Logodesign</t>
+  </si>
+  <si>
+    <t>Websitedesign ausgearbeitet</t>
+  </si>
+  <si>
+    <t>Projektstrukturplan erstellen</t>
+  </si>
+  <si>
+    <t>Websitedesign überarbeitet</t>
   </si>
 </sst>
 </file>
@@ -163,15 +216,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -180,19 +239,36 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thick">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -215,11 +291,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -345,8 +428,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F961C72F-986B-45C7-9EE6-C71F656E8A9B}" name="Tabelle4" displayName="Tabelle4" ref="I1:J6" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="8">
-  <autoFilter ref="I1:J6" xr:uid="{E1EBE3F0-6EB7-4788-A215-5855DF9F6C31}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F961C72F-986B-45C7-9EE6-C71F656E8A9B}" name="Tabelle4" displayName="Tabelle4" ref="I1:J25" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="I1:J25" xr:uid="{E1EBE3F0-6EB7-4788-A215-5855DF9F6C31}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{FAA754C0-FC83-48C5-8498-E31AEE3BB9FB}" name="Aufgabe"/>
     <tableColumn id="2" xr3:uid="{A113263D-9900-48A8-B384-8820245D7A1C}" name="Gesamtstunden" dataDxfId="7"/>
@@ -356,10 +439,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6F38B388-F2B0-46E9-BD16-2BD59AD58B7E}" name="Tabelle5" displayName="Tabelle5" ref="A1:G16" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:G16" xr:uid="{A80558E1-FB5E-4A8B-B87E-A7A6FB67DBB2}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G16">
-    <sortCondition ref="A1:A16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6F38B388-F2B0-46E9-BD16-2BD59AD58B7E}" name="Tabelle5" displayName="Tabelle5" ref="A1:G37" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:G37" xr:uid="{A80558E1-FB5E-4A8B-B87E-A7A6FB67DBB2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G34">
+    <sortCondition ref="A1:A34"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{956A7422-8F9B-4782-B2E6-7C1532FD1FA3}" name="Datum" dataDxfId="5"/>
@@ -673,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F74C66E-C3BC-44EA-A360-2C6C929F1751}">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +767,7 @@
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10" style="8" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" customWidth="1"/>
     <col min="6" max="6" width="44.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" style="8" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
@@ -754,11 +837,11 @@
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
@@ -790,7 +873,7 @@
       </c>
       <c r="J3" s="12" cm="1">
         <f t="array" ref="J3">SUM(IF(E:E="Projektstrukturplan",G:G,))</f>
-        <v>0.22569444444444436</v>
+        <v>0.32291666666666657</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="2"/>
@@ -829,41 +912,41 @@
       </c>
       <c r="J4" s="12" cm="1">
         <f t="array" ref="J4">SUM(IF(E:E="Pflichtenheft",G:G,))</f>
-        <v>0.20486111111111105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.26736111111111083</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>44131</v>
       </c>
       <c r="B5" s="7">
-        <v>0.64583333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C5" s="7">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G5" s="7">
         <f>C5-B5</f>
-        <v>2.0833333333333259E-2</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J5" s="12" cm="1">
-        <f t="array" ref="J5">SUM(IF(E:E="Datenbankmodel",G:G,))</f>
-        <v>7.9861111111111049E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <f t="array" ref="J5">SUM(IF(E:E="Datenbankmodell",G:G,))</f>
+        <v>0.30208333333333331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>44131</v>
       </c>
@@ -874,7 +957,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>16</v>
@@ -886,12 +969,12 @@
         <f>C6-B6</f>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="I6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="15">
-        <f>SUM(J2:J5)</f>
-        <v>0.89583333333333326</v>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="19" cm="1">
+        <f t="array" ref="J6">SUM(IF(E:E="Websitedesign",G:G,))</f>
+        <v>0.24305555555555564</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -899,23 +982,30 @@
         <v>44131</v>
       </c>
       <c r="B7" s="7">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C7" s="7">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C7" s="7">
-        <v>0.70833333333333337</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G7" s="7">
         <f>C7-B7</f>
-        <v>4.1666666666666741E-2</v>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="19" cm="1">
+        <f t="array" ref="J7">SUM(IF(E:E="Logo",G:G,))</f>
+        <v>0.20833333333333337</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -941,30 +1031,38 @@
         <f>C8-B8</f>
         <v>6.25E-2</v>
       </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="19" cm="1">
+        <f t="array" ref="J8">SUM(IF(E:E="UML",G:G,))</f>
+        <v>0.13888888888888901</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
-        <v>44132</v>
+        <v>44131</v>
       </c>
       <c r="B9" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="C9" s="7">
-        <v>0.4513888888888889</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7">
         <f>C9-B9</f>
-        <v>0.11805555555555558</v>
-      </c>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
@@ -977,7 +1075,7 @@
         <v>0.4513888888888889</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>16</v>
@@ -989,54 +1087,58 @@
         <f>C10-B10</f>
         <v>0.11805555555555558</v>
       </c>
+      <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
-        <v>44134</v>
+        <v>44132</v>
       </c>
       <c r="B11" s="7">
-        <v>0.71180555555555547</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C11" s="7">
-        <v>0.77083333333333337</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7">
         <f>C11-B11</f>
-        <v>5.9027777777777901E-2</v>
-      </c>
+        <v>0.11805555555555558</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
-        <v>44138</v>
+        <v>44134</v>
       </c>
       <c r="B12" s="7">
-        <v>0.67708333333333337</v>
+        <v>0.71180555555555547</v>
       </c>
       <c r="C12" s="7">
-        <v>0.75</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" t="s">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="G12" s="7">
         <f>C12-B12</f>
-        <v>7.291666666666663E-2</v>
-      </c>
+        <v>5.9027777777777901E-2</v>
+      </c>
+      <c r="J12" s="19"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
@@ -1048,42 +1150,43 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
-        <v>44145</v>
+        <v>44138</v>
       </c>
       <c r="B13" s="7">
-        <v>0.66666666666666663</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="C13" s="7">
-        <v>0.68402777777777779</v>
+        <v>0.75</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G13" s="7">
         <f>C13-B13</f>
-        <v>1.736111111111116E-2</v>
-      </c>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
-        <v>44145</v>
+        <v>44138</v>
       </c>
       <c r="B14" s="7">
-        <v>0.68402777777777779</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="C14" s="7">
-        <v>0.72222222222222221</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F14" t="s">
@@ -1091,56 +1194,563 @@
       </c>
       <c r="G14" s="7">
         <f>C14-B14</f>
-        <v>3.819444444444442E-2</v>
-      </c>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
-        <v>44156</v>
+        <v>44138</v>
       </c>
       <c r="B15" s="7">
-        <v>0.55555555555555558</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="C15" s="7">
-        <v>0.63541666666666663</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7">
         <f>C15-B15</f>
-        <v>7.9861111111111049E-2</v>
-      </c>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>44158</v>
+      <c r="A16" s="9">
+        <v>44138</v>
       </c>
       <c r="B16" s="7">
-        <v>0.80208333333333337</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="C16" s="7">
-        <v>0.83680555555555547</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G16" s="7">
         <f>C16-B16</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>44145</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="7">
+        <f>C17-B17</f>
+        <v>3.4722222222222265E-2</v>
+      </c>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>44145</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7">
+        <f>C18-B18</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>44145</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="7">
+        <f>C19-B19</f>
+        <v>3.819444444444442E-2</v>
+      </c>
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>44145</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="7">
+        <f>C20-B20</f>
+        <v>1.736111111111116E-2</v>
+      </c>
+      <c r="J20" s="19"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>44146</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="7">
+        <f>C21-B21</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="J21" s="19"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>44150</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="7">
+        <f>C22-B22</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>44151</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="7">
+        <f>C23-B23</f>
+        <v>0.125</v>
+      </c>
+      <c r="J23" s="19"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>44152</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="7">
+        <f>C24-B24</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>44152</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="7">
+        <f>C25-B25</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="J25" s="19"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>44152</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="7">
+        <f>C26-B26</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" s="21">
+        <f>SUM(J2:J25)</f>
+        <v>1.8680555555555556</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>44152</v>
+      </c>
+      <c r="B27" s="7">
+        <v>0.6875</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="7">
+        <f>C27-B27</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>44153</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="7">
+        <f>C28-B28</f>
+        <v>3.4722222222222265E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>44154</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.8125</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="7">
+        <f>C29-B29</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>44156</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="7">
+        <f>C30-B30</f>
+        <v>7.9861111111111049E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
+        <v>44158</v>
+      </c>
+      <c r="B31" s="16">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="C31" s="16">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="16">
+        <f>C31-B31</f>
         <v>3.4722222222222099E-2</v>
       </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="18">
+        <v>44158</v>
+      </c>
+      <c r="B32" s="16">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C32" s="16">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="16">
+        <f>C32-B32</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>44159</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="7">
+        <f>C33-B33</f>
+        <v>3.4722222222222265E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>44125</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="7">
+        <f>C34-B34</f>
+        <v>4.1666666666666685E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>44157</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" s="7">
+        <f>C35-B35</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>44125</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="7">
+        <f>C36-B36</f>
+        <v>3.4722222222222265E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="4"/>
+      <c r="G37" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documents/4CHIF_JUST_Stundenprotokoll.xlsx
+++ b/Documents/4CHIF_JUST_Stundenprotokoll.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janfi\Desktop\4CHIF\just\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B14888-C2F9-4648-B30E-B4C54B78FD76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23849573-212C-4408-88FD-AD778FB4663F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{636FC6D6-FC23-4AAD-901B-119DCAB366AD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{636FC6D6-FC23-4AAD-901B-119DCAB366AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>Relations finden und Tabellen erweitern</t>
+  </si>
+  <si>
+    <t>Docker und DB</t>
+  </si>
+  <si>
+    <t>Docker-Images erstellen</t>
   </si>
 </sst>
 </file>
@@ -356,8 +362,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6F38B388-F2B0-46E9-BD16-2BD59AD58B7E}" name="Tabelle5" displayName="Tabelle5" ref="A1:G16" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:G16" xr:uid="{A80558E1-FB5E-4A8B-B87E-A7A6FB67DBB2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6F38B388-F2B0-46E9-BD16-2BD59AD58B7E}" name="Tabelle5" displayName="Tabelle5" ref="A1:G17" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:G17" xr:uid="{A80558E1-FB5E-4A8B-B87E-A7A6FB67DBB2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G16">
     <sortCondition ref="A1:A16"/>
   </sortState>
@@ -673,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F74C66E-C3BC-44EA-A360-2C6C929F1751}">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="7">
-        <f>C2-B2</f>
+        <f t="shared" ref="G2:G16" si="0">C2-B2</f>
         <v>6.5972222222222099E-2</v>
       </c>
       <c r="I2" s="11" t="s">
@@ -782,7 +788,7 @@
         <v>14</v>
       </c>
       <c r="G3" s="7">
-        <f>C3-B3</f>
+        <f t="shared" si="0"/>
         <v>7.6388888888888895E-2</v>
       </c>
       <c r="I3" s="13" t="s">
@@ -821,7 +827,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="7">
-        <f>C4-B4</f>
+        <f t="shared" si="0"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="I4" s="11" t="s">
@@ -852,7 +858,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="7">
-        <f>C5-B5</f>
+        <f t="shared" si="0"/>
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -883,7 +889,7 @@
         <v>19</v>
       </c>
       <c r="G6" s="7">
-        <f>C6-B6</f>
+        <f t="shared" si="0"/>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="I6" s="14" t="s">
@@ -914,7 +920,7 @@
         <v>19</v>
       </c>
       <c r="G7" s="7">
-        <f>C7-B7</f>
+        <f t="shared" si="0"/>
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
@@ -938,7 +944,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="7">
-        <f>C8-B8</f>
+        <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -962,7 +968,7 @@
         <v>17</v>
       </c>
       <c r="G9" s="7">
-        <f>C9-B9</f>
+        <f t="shared" si="0"/>
         <v>0.11805555555555558</v>
       </c>
     </row>
@@ -986,7 +992,7 @@
         <v>17</v>
       </c>
       <c r="G10" s="7">
-        <f>C10-B10</f>
+        <f t="shared" si="0"/>
         <v>0.11805555555555558</v>
       </c>
     </row>
@@ -1010,7 +1016,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="7">
-        <f>C11-B11</f>
+        <f t="shared" si="0"/>
         <v>5.9027777777777901E-2</v>
       </c>
     </row>
@@ -1034,7 +1040,7 @@
         <v>22</v>
       </c>
       <c r="G12" s="7">
-        <f>C12-B12</f>
+        <f t="shared" si="0"/>
         <v>7.291666666666663E-2</v>
       </c>
       <c r="L12" s="11"/>
@@ -1066,7 +1072,7 @@
         <v>24</v>
       </c>
       <c r="G13" s="7">
-        <f>C13-B13</f>
+        <f t="shared" si="0"/>
         <v>1.736111111111116E-2</v>
       </c>
     </row>
@@ -1090,7 +1096,7 @@
         <v>23</v>
       </c>
       <c r="G14" s="7">
-        <f>C14-B14</f>
+        <f t="shared" si="0"/>
         <v>3.819444444444442E-2</v>
       </c>
     </row>
@@ -1114,7 +1120,7 @@
         <v>26</v>
       </c>
       <c r="G15" s="7">
-        <f>C15-B15</f>
+        <f t="shared" si="0"/>
         <v>7.9861111111111049E-2</v>
       </c>
     </row>
@@ -1138,8 +1144,32 @@
         <v>12</v>
       </c>
       <c r="G16" s="7">
-        <f>C16-B16</f>
+        <f t="shared" si="0"/>
         <v>3.4722222222222099E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>44161</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" ref="G17" si="1">C17-B17</f>
+        <v>9.027777777777779E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/4CHIF_JUST_Stundenprotokoll.xlsx
+++ b/Documents/4CHIF_JUST_Stundenprotokoll.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\just\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\school\just\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D2313B-DE1F-441B-9323-07E966609E1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB36A70-FDBE-47B2-BEAC-444984E58BB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{636FC6D6-FC23-4AAD-901B-119DCAB366AD}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="46">
   <si>
     <t>Aufgabe</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>Websitedesign überarbeitet</t>
+  </si>
+  <si>
+    <t>Landingpage designed</t>
   </si>
 </sst>
 </file>
@@ -291,9 +294,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -303,6 +303,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -441,8 +444,8 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6F38B388-F2B0-46E9-BD16-2BD59AD58B7E}" name="Tabelle5" displayName="Tabelle5" ref="A1:G37" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:G37" xr:uid="{A80558E1-FB5E-4A8B-B87E-A7A6FB67DBB2}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G34">
-    <sortCondition ref="A1:A34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G37">
+    <sortCondition ref="A1:A37"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{956A7422-8F9B-4782-B2E6-7C1532FD1FA3}" name="Datum" dataDxfId="5"/>
@@ -758,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F74C66E-C3BC-44EA-A360-2C6C929F1751}">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,11 +840,11 @@
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
@@ -886,26 +889,26 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>44128</v>
+        <v>44125</v>
       </c>
       <c r="B4" s="7">
-        <v>0.58680555555555558</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C4" s="7">
-        <v>0.63541666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G4" s="7">
         <f>C4-B4</f>
-        <v>4.8611111111111049E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>11</v>
@@ -917,26 +920,26 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>44131</v>
+        <v>44125</v>
       </c>
       <c r="B5" s="7">
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C5" s="7">
-        <v>0.70833333333333337</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G5" s="7">
         <f>C5-B5</f>
-        <v>4.1666666666666741E-2</v>
+        <v>3.4722222222222265E-2</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>31</v>
@@ -948,33 +951,33 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>44131</v>
+        <v>44128</v>
       </c>
       <c r="B6" s="7">
-        <v>0.66666666666666663</v>
+        <v>0.58680555555555558</v>
       </c>
       <c r="C6" s="7">
-        <v>0.70833333333333337</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7">
         <f>C6-B6</f>
-        <v>4.1666666666666741E-2</v>
+        <v>4.8611111111111049E-2</v>
       </c>
       <c r="I6" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="19" cm="1">
+      <c r="J6" s="18" cm="1">
         <f t="array" ref="J6">SUM(IF(E:E="Websitedesign",G:G,))</f>
-        <v>0.24305555555555564</v>
+        <v>0.36805555555555564</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -982,28 +985,28 @@
         <v>44131</v>
       </c>
       <c r="B7" s="7">
-        <v>0.64583333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C7" s="7">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G7" s="7">
         <f>C7-B7</f>
-        <v>2.0833333333333259E-2</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="I7" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="19" cm="1">
+      <c r="J7" s="18" cm="1">
         <f t="array" ref="J7">SUM(IF(E:E="Logo",G:G,))</f>
         <v>0.20833333333333337</v>
       </c>
@@ -1013,28 +1016,28 @@
         <v>44131</v>
       </c>
       <c r="B8" s="7">
-        <v>0.64583333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C8" s="7">
         <v>0.70833333333333337</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G8" s="7">
         <f>C8-B8</f>
-        <v>6.25E-2</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="I8" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="19" cm="1">
+      <c r="J8" s="18" cm="1">
         <f t="array" ref="J8">SUM(IF(E:E="UML",G:G,))</f>
         <v>0.13888888888888901</v>
       </c>
@@ -1050,7 +1053,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>13</v>
@@ -1062,83 +1065,83 @@
         <f>C9-B9</f>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="J9" s="19"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
-        <v>44132</v>
+        <v>44131</v>
       </c>
       <c r="B10" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="C10" s="7">
-        <v>0.4513888888888889</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7">
         <f>C10-B10</f>
-        <v>0.11805555555555558</v>
-      </c>
-      <c r="J10" s="19"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
-        <v>44132</v>
+        <v>44131</v>
       </c>
       <c r="B11" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="C11" s="7">
-        <v>0.4513888888888889</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G11" s="7">
         <f>C11-B11</f>
-        <v>0.11805555555555558</v>
-      </c>
-      <c r="J11" s="19"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="J11" s="18"/>
       <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
-        <v>44134</v>
+        <v>44132</v>
       </c>
       <c r="B12" s="7">
-        <v>0.71180555555555547</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C12" s="7">
-        <v>0.77083333333333337</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E12" t="s">
-        <v>11</v>
+      <c r="E12" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G12" s="7">
         <f>C12-B12</f>
-        <v>5.9027777777777901E-2</v>
-      </c>
-      <c r="J12" s="19"/>
+        <v>0.11805555555555558</v>
+      </c>
+      <c r="J12" s="18"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
@@ -1150,53 +1153,53 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
-        <v>44138</v>
+        <v>44132</v>
       </c>
       <c r="B13" s="7">
-        <v>0.67708333333333337</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C13" s="7">
-        <v>0.75</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G13" s="7">
         <f>C13-B13</f>
-        <v>7.291666666666663E-2</v>
-      </c>
-      <c r="J13" s="19"/>
+        <v>0.11805555555555558</v>
+      </c>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
-        <v>44138</v>
+        <v>44134</v>
       </c>
       <c r="B14" s="7">
-        <v>0.67708333333333337</v>
+        <v>0.71180555555555547</v>
       </c>
       <c r="C14" s="7">
-        <v>0.69791666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
         <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="G14" s="7">
         <f>C14-B14</f>
-        <v>2.0833333333333259E-2</v>
-      </c>
-      <c r="J14" s="19"/>
+        <v>5.9027777777777901E-2</v>
+      </c>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
@@ -1206,22 +1209,22 @@
         <v>0.67708333333333337</v>
       </c>
       <c r="C15" s="7">
-        <v>0.69791666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="7">
         <f>C15-B15</f>
-        <v>2.0833333333333259E-2</v>
-      </c>
-      <c r="J15" s="19"/>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
@@ -1234,7 +1237,7 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>11</v>
@@ -1246,214 +1249,214 @@
         <f>C16-B16</f>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="J16" s="19"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
-        <v>44145</v>
+        <v>44138</v>
       </c>
       <c r="B17" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="C17" s="7">
-        <v>0.36805555555555558</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G17" s="7">
         <f>C17-B17</f>
-        <v>3.4722222222222265E-2</v>
-      </c>
-      <c r="J17" s="19"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
-        <v>44145</v>
+        <v>44138</v>
       </c>
       <c r="B18" s="7">
-        <v>0.64583333333333337</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="C18" s="7">
-        <v>0.70833333333333337</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7">
         <f>C18-B18</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="J18" s="19"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>44145</v>
       </c>
       <c r="B19" s="7">
-        <v>0.68402777777777779</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C19" s="7">
-        <v>0.72222222222222221</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G19" s="7">
         <f>C19-B19</f>
-        <v>3.819444444444442E-2</v>
-      </c>
-      <c r="J19" s="19"/>
+        <v>3.4722222222222265E-2</v>
+      </c>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>44145</v>
       </c>
       <c r="B20" s="7">
-        <v>0.66666666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="C20" s="7">
-        <v>0.68402777777777779</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G20" s="7">
         <f>C20-B20</f>
-        <v>1.736111111111116E-2</v>
-      </c>
-      <c r="J20" s="19"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
-        <v>44146</v>
+        <v>44145</v>
       </c>
       <c r="B21" s="7">
-        <v>0.75</v>
+        <v>0.68402777777777779</v>
       </c>
       <c r="C21" s="7">
-        <v>0.83333333333333337</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7">
         <f>C21-B21</f>
-        <v>8.333333333333337E-2</v>
-      </c>
-      <c r="J21" s="19"/>
+        <v>3.819444444444442E-2</v>
+      </c>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
-        <v>44150</v>
+        <v>44145</v>
       </c>
       <c r="B22" s="7">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C22" s="7">
-        <v>0.79166666666666663</v>
+        <v>0.68402777777777779</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G22" s="7">
         <f>C22-B22</f>
-        <v>4.166666666666663E-2</v>
-      </c>
-      <c r="J22" s="19"/>
+        <v>1.736111111111116E-2</v>
+      </c>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
-        <v>44151</v>
+        <v>44146</v>
       </c>
       <c r="B23" s="7">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="C23" s="7">
         <v>0.83333333333333337</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G23" s="7">
         <f>C23-B23</f>
-        <v>0.125</v>
-      </c>
-      <c r="J23" s="19"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
-        <v>44152</v>
+        <v>44150</v>
       </c>
       <c r="B24" s="7">
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="C24" s="7">
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7">
         <f>C24-B24</f>
-        <v>8.333333333333337E-2</v>
-      </c>
-      <c r="J24" s="19"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="J24" s="18"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B25" s="7">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C25" s="7">
         <v>0.83333333333333337</v>
@@ -1465,43 +1468,43 @@
         <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G25" s="7">
         <f>C25-B25</f>
-        <v>8.333333333333337E-2</v>
-      </c>
-      <c r="J25" s="19"/>
+        <v>0.125</v>
+      </c>
+      <c r="J25" s="18"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>44152</v>
       </c>
       <c r="B26" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C26" s="7">
-        <v>0.35416666666666669</v>
+        <v>0.75</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G26" s="7">
         <f>C26-B26</f>
-        <v>2.083333333333337E-2</v>
-      </c>
-      <c r="I26" s="20" t="s">
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="I26" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J26" s="20">
         <f>SUM(J2:J25)</f>
-        <v>1.8680555555555556</v>
+        <v>1.9930555555555556</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1509,67 +1512,67 @@
         <v>44152</v>
       </c>
       <c r="B27" s="7">
-        <v>0.6875</v>
+        <v>0.75</v>
       </c>
       <c r="C27" s="7">
-        <v>0.70833333333333337</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7">
         <f>C27-B27</f>
-        <v>2.083333333333337E-2</v>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="B28" s="7">
         <v>0.33333333333333331</v>
       </c>
       <c r="C28" s="7">
-        <v>0.36805555555555558</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G28" s="7">
         <f>C28-B28</f>
-        <v>3.4722222222222265E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
-        <v>44154</v>
+        <v>44152</v>
       </c>
       <c r="B29" s="7">
-        <v>0.79166666666666663</v>
+        <v>0.6875</v>
       </c>
       <c r="C29" s="7">
-        <v>0.8125</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G29" s="7">
         <f>C29-B29</f>
@@ -1578,85 +1581,85 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
-        <v>44156</v>
+        <v>44153</v>
       </c>
       <c r="B30" s="7">
-        <v>0.55555555555555558</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C30" s="7">
-        <v>0.63541666666666663</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G30" s="7">
         <f>C30-B30</f>
+        <v>3.4722222222222265E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>44154</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.8125</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="7">
+        <f>C31-B31</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>44156</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="7">
+        <f>C32-B32</f>
         <v>7.9861111111111049E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
-        <v>44158</v>
-      </c>
-      <c r="B31" s="16">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="C31" s="16">
-        <v>0.83680555555555547</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="16">
-        <f>C31-B31</f>
-        <v>3.4722222222222099E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="18">
-        <v>44158</v>
-      </c>
-      <c r="B32" s="16">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="C32" s="16">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" s="16">
-        <f>C32-B32</f>
-        <v>8.3333333333333259E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
-        <v>44159</v>
+        <v>44157</v>
       </c>
       <c r="B33" s="7">
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C33" s="7">
-        <v>0.36805555555555558</v>
+        <v>0.75</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>20</v>
@@ -1665,64 +1668,64 @@
         <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G33" s="7">
         <f>C33-B33</f>
-        <v>3.4722222222222265E-2</v>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
-        <v>44125</v>
-      </c>
-      <c r="B34" s="7">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C34" s="7">
-        <v>0.375</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G34" s="7">
+      <c r="A34" s="16">
+        <v>44158</v>
+      </c>
+      <c r="B34" s="15">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="C34" s="15">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="15">
         <f>C34-B34</f>
-        <v>4.1666666666666685E-2</v>
+        <v>3.4722222222222099E-2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
-        <v>44157</v>
-      </c>
-      <c r="B35" s="7">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C35" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="D35" s="6" t="s">
+      <c r="A35" s="17">
+        <v>44158</v>
+      </c>
+      <c r="B35" s="15">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C35" s="15">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F35" t="s">
-        <v>44</v>
-      </c>
-      <c r="G35" s="7">
+      <c r="F35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="15">
         <f>C35-B35</f>
-        <v>8.333333333333337E-2</v>
+        <v>8.3333333333333259E-2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
-        <v>44125</v>
+        <v>44159</v>
       </c>
       <c r="B36" s="7">
         <v>0.33333333333333331</v>
@@ -1731,13 +1734,13 @@
         <v>0.36805555555555558</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G36" s="7">
         <f>C36-B36</f>
@@ -1745,12 +1748,28 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="4"/>
-      <c r="G37" s="7"/>
+      <c r="A37" s="9">
+        <v>44163</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="7">
+        <f>C37-B37</f>
+        <v>0.125</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
